--- a/docs/mcode/shr-core-Medication.xlsx
+++ b/docs/mcode/shr-core-Medication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$48</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="225">
   <si>
     <t>Path</t>
   </si>
@@ -193,19 +193,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Medication.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Medication.meta.extension</t>
+    <t>Medication.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Medication.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Medication.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Medication.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Medication.extension</t>
   </si>
   <si>
     <t>extensions
@@ -219,193 +298,10 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Medication.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Medication.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Medication.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Medication.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Medication.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Medication.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Medication.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Medication.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Medication.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Medication.extension</t>
-  </si>
-  <si>
-    <t>Medication:argoprofile.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -442,6 +338,9 @@
 </t>
   </si>
   <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
     <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
@@ -525,6 +424,9 @@
     <t>Depending on the context of use, the code that was actually selected by the user (prescriber, dispenser, etc.) should be marked as "primary". Other codes can only be literal translations to alternative code systems, or codes at a lower level of granularity (e.g. a generic code for a vendor-specific primary one).</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-medication-codes</t>
   </si>
   <si>
@@ -594,7 +496,16 @@
     <t>Medication.product.id</t>
   </si>
   <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Medication.product.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Medication.product.modifierExtension</t>
@@ -755,6 +666,9 @@
   </si>
   <si>
     <t>The kind of container that this package comes as.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-package-form</t>
@@ -953,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM55"/>
+  <dimension ref="A1:AM48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -963,7 +877,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="45.4609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.94921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.0390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -985,7 +899,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="23.64453125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.86328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -1457,21 +1371,23 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>39</v>
@@ -1493,7 +1409,7 @@
         <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
         <v>39</v>
@@ -1519,11 +1435,15 @@
       <c r="AD5" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE5" s="2"/>
+      <c r="AE5" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG5" s="2"/>
+      <c r="AG5" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH5" t="s" s="2">
         <v>39</v>
       </c>
@@ -1531,7 +1451,7 @@
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -1542,18 +1462,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>39</v>
@@ -1597,16 +1517,16 @@
         <v>39</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>39</v>
@@ -1623,11 +1543,15 @@
       <c r="AD6" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE6" s="2"/>
+      <c r="AE6" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG6" s="2"/>
+      <c r="AG6" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH6" t="s" s="2">
         <v>39</v>
       </c>
@@ -1635,7 +1559,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -1646,11 +1570,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1666,19 +1590,19 @@
         <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1701,7 +1625,7 @@
         <v>39</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
         <v>39</v>
@@ -1727,19 +1651,23 @@
       <c r="AD7" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>39</v>
@@ -1750,18 +1678,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>39</v>
@@ -1770,19 +1698,19 @@
         <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1805,7 +1733,7 @@
         <v>39</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
         <v>39</v>
@@ -1831,11 +1759,15 @@
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>39</v>
       </c>
@@ -1843,7 +1775,7 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>39</v>
@@ -1854,11 +1786,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1874,19 +1806,19 @@
         <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1909,7 +1841,7 @@
         <v>39</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>39</v>
@@ -1924,22 +1856,24 @@
         <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>39</v>
       </c>
@@ -1947,7 +1881,7 @@
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -1958,9 +1892,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>39</v>
       </c>
@@ -1978,20 +1914,16 @@
         <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>39</v>
@@ -2013,16 +1945,16 @@
         <v>39</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>39</v>
@@ -2039,11 +1971,15 @@
       <c r="AD10" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2062,9 +1998,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2073,7 +2011,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -2082,20 +2020,16 @@
         <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>39</v>
@@ -2117,13 +2051,13 @@
         <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>39</v>
@@ -2143,11 +2077,15 @@
       <c r="AD11" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2166,7 +2104,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2183,23 +2121,21 @@
         <v>39</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>39</v>
@@ -2221,7 +2157,7 @@
         <v>39</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>39</v>
@@ -2248,7 +2184,7 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2263,7 +2199,7 @@
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>39</v>
@@ -2274,7 +2210,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2285,7 +2221,7 @@
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>39</v>
@@ -2297,17 +2233,15 @@
         <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>39</v>
@@ -2329,16 +2263,16 @@
         <v>39</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>39</v>
@@ -2356,13 +2290,13 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>39</v>
@@ -2382,15 +2316,15 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>47</v>
@@ -2405,24 +2339,22 @@
         <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>39</v>
@@ -2437,7 +2369,7 @@
         <v>39</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>39</v>
@@ -2464,22 +2396,22 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>39</v>
@@ -2490,18 +2422,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>39</v>
@@ -2513,17 +2445,15 @@
         <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -2545,16 +2475,14 @@
         <v>39</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>39</v>
@@ -2572,13 +2500,13 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>39</v>
@@ -2587,7 +2515,7 @@
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>39</v>
@@ -2598,20 +2526,20 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
@@ -2623,17 +2551,13 @@
         <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>64</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="K16" s="2"/>
       <c r="L16" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -2670,17 +2594,19 @@
         <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -2695,7 +2621,7 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
@@ -2708,11 +2634,9 @@
       <c r="A17" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2725,19 +2649,23 @@
         <v>39</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -2801,7 +2729,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -2810,25 +2738,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>39</v>
@@ -2837,13 +2763,17 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>39</v>
@@ -2868,13 +2798,11 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>39</v>
@@ -2892,13 +2820,13 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
@@ -2907,18 +2835,18 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>39</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2938,16 +2866,16 @@
         <v>39</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2971,7 +2899,7 @@
         <v>39</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
         <v>39</v>
@@ -2998,7 +2926,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3013,10 +2941,10 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>39</v>
@@ -3024,7 +2952,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3035,7 +2963,7 @@
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>39</v>
@@ -3044,16 +2972,16 @@
         <v>39</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3077,7 +3005,7 @@
         <v>39</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
         <v>39</v>
@@ -3104,13 +3032,13 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -3119,18 +3047,18 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>39</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3138,7 +3066,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>47</v>
@@ -3153,13 +3081,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3168,7 +3096,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>39</v>
@@ -3183,7 +3111,7 @@
         <v>39</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
         <v>39</v>
@@ -3210,10 +3138,10 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>47</v>
@@ -3225,7 +3153,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3236,7 +3164,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3244,7 +3172,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>47</v>
@@ -3259,13 +3187,13 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3289,14 +3217,16 @@
         <v>39</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>39</v>
@@ -3329,7 +3259,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3340,20 +3270,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
@@ -3365,13 +3293,17 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K23" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="L23" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -3420,7 +3352,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3435,7 +3367,7 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
@@ -3446,11 +3378,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3469,16 +3401,16 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3528,7 +3460,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3543,7 +3475,7 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -3552,9 +3484,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3562,13 +3494,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>39</v>
@@ -3577,17 +3509,15 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M25" t="s" s="2">
         <v>161</v>
       </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>39</v>
@@ -3612,11 +3542,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>39</v>
@@ -3634,7 +3566,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3649,10 +3581,10 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>165</v>
@@ -3671,7 +3603,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>39</v>
@@ -3680,18 +3612,20 @@
         <v>39</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -3746,7 +3680,7 @@
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -3758,7 +3692,7 @@
         <v>170</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>39</v>
@@ -3786,16 +3720,16 @@
         <v>39</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3861,29 +3795,29 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>177</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>39</v>
@@ -3895,15 +3829,17 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -3952,13 +3888,13 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>39</v>
@@ -3967,7 +3903,7 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>39</v>
@@ -3978,38 +3914,40 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>39</v>
@@ -4058,13 +3996,13 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>39</v>
@@ -4073,7 +4011,7 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -4084,18 +4022,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>39</v>
@@ -4107,17 +4045,15 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4166,13 +4102,13 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
@@ -4181,51 +4117,49 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>39</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>39</v>
@@ -4274,33 +4208,33 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>39</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4325,11 +4259,9 @@
       <c r="J32" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>189</v>
-      </c>
+      <c r="K32" s="2"/>
       <c r="L32" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4356,13 +4288,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
@@ -4380,13 +4312,13 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
@@ -4395,18 +4327,18 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>194</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4417,7 +4349,7 @@
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>39</v>
@@ -4429,17 +4361,15 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>39</v>
@@ -4488,13 +4418,13 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
@@ -4503,7 +4433,7 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>39</v>
@@ -4514,18 +4444,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
@@ -4537,15 +4467,17 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>39</v>
@@ -4594,13 +4526,13 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
@@ -4609,7 +4541,7 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4620,11 +4552,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4637,22 +4569,22 @@
         <v>39</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4702,7 +4634,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4717,7 +4649,7 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
@@ -4728,40 +4660,36 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K36" s="2"/>
       <c r="L36" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -4810,13 +4738,13 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
@@ -4825,18 +4753,18 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>39</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4844,7 +4772,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>47</v>
@@ -4859,13 +4787,11 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="K37" s="2"/>
       <c r="L37" t="s" s="2">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4916,10 +4842,10 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>47</v>
@@ -4931,18 +4857,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4965,13 +4891,13 @@
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5022,7 +4948,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5037,18 +4963,18 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>214</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5071,11 +4997,13 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K39" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="L39" t="s" s="2">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5126,13 +5054,13 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
@@ -5141,7 +5069,7 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
@@ -5152,18 +5080,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>39</v>
@@ -5175,15 +5103,17 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5232,13 +5162,13 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
@@ -5247,7 +5177,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5258,11 +5188,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5275,22 +5205,22 @@
         <v>39</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5340,7 +5270,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5355,7 +5285,7 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -5366,40 +5296,38 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>39</v>
@@ -5424,13 +5352,11 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>39</v>
@@ -5448,13 +5374,13 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>39</v>
@@ -5463,7 +5389,7 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
@@ -5474,7 +5400,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5485,7 +5411,7 @@
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>39</v>
@@ -5497,11 +5423,13 @@
         <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K43" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="L43" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5552,13 +5480,13 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>39</v>
@@ -5567,18 +5495,18 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>222</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5601,11 +5529,13 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="K44" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="L44" t="s" s="2">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5656,7 +5586,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -5671,29 +5601,29 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>226</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>39</v>
@@ -5705,15 +5635,17 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -5762,13 +5694,13 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
@@ -5777,7 +5709,7 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -5788,38 +5720,40 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -5868,13 +5802,13 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
@@ -5883,7 +5817,7 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
@@ -5894,18 +5828,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>39</v>
@@ -5917,17 +5851,15 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -5976,13 +5908,13 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
@@ -5991,7 +5923,7 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
@@ -6002,40 +5934,38 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6084,13 +6014,13 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
@@ -6099,761 +6029,17 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="X49" s="2"/>
-      <c r="Y49" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL55" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL55">
+  <autoFilter ref="A1:AL48">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6863,7 +6049,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI47">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
